--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\Maria_Pluta\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\Students\Maria_Pluta\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD23FE2-7FF3-47F0-A8A3-311A63EBC614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B95FDC-2336-419E-A43C-89DD6025D1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4836" yWindow="4836" windowWidth="23256" windowHeight="12708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1530" windowWidth="21600" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="128">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1174,7 +1174,10 @@
     <t>New Biomass Plant</t>
   </si>
   <si>
-    <t>Solar</t>
+    <t>\I: NRG</t>
+  </si>
+  <si>
+    <t>Solar Energy</t>
   </si>
 </sst>
 </file>
@@ -2466,7 +2469,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1240">
+  <cellStyleXfs count="1241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -3974,8 +3977,9 @@
     </xf>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4106,8 +4110,13 @@
     <xf numFmtId="0" fontId="40" fillId="45" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="182" fontId="40" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="4" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1240">
+  <cellStyles count="1241">
     <cellStyle name="20 % - Akzent1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20 % - Akzent2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20 % - Akzent3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -5052,6 +5061,7 @@
     <cellStyle name="Output 2" xfId="939" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
     <cellStyle name="Output 3" xfId="940" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
     <cellStyle name="Percent [2]" xfId="941" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
+    <cellStyle name="Percent 2" xfId="1240" xr:uid="{9AA4233F-C7AB-468A-9BBB-5AAC1B274223}"/>
     <cellStyle name="Procentowy 2" xfId="942" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
     <cellStyle name="Procentowy 2 2" xfId="943" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
     <cellStyle name="Procentowy 2 2 2" xfId="944" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
@@ -5787,30 +5797,30 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34:G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="24.53125" customWidth="1"/>
+    <col min="3" max="3" width="26.46484375" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.53125" customWidth="1"/>
+    <col min="7" max="7" width="15.86328125" customWidth="1"/>
+    <col min="8" max="8" width="14.86328125" customWidth="1"/>
+    <col min="9" max="9" width="10.53125" customWidth="1"/>
+    <col min="10" max="10" width="10.1328125" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.1328125" customWidth="1"/>
+    <col min="13" max="13" width="13.1328125" customWidth="1"/>
+    <col min="14" max="14" width="10.46484375" customWidth="1"/>
     <col min="15" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="13.8">
+    <row r="1" spans="2:19" ht="13.5">
       <c r="L1" s="29" t="s">
         <v>57</v>
       </c>
@@ -5818,7 +5828,7 @@
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
-    <row r="2" spans="2:19" ht="17.399999999999999">
+    <row r="2" spans="2:19" ht="17.25">
       <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
@@ -5829,7 +5839,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="2:19">
+    <row r="3" spans="2:19" ht="13.15">
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
@@ -5847,7 +5857,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="2:19" ht="26.4">
+    <row r="5" spans="2:19" ht="26.25">
       <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
@@ -5903,7 +5913,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:19" s="3" customFormat="1" ht="48.15" customHeight="1" thickBot="1">
+    <row r="6" spans="2:19" s="3" customFormat="1" ht="48.2" customHeight="1" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>45</v>
       </c>
@@ -6320,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="13.8" thickBot="1">
+    <row r="14" spans="2:19" ht="13.15" thickBot="1">
       <c r="B14" t="s">
         <v>119</v>
       </c>
@@ -6368,14 +6378,14 @@
     <row r="15" spans="2:19">
       <c r="S15" s="34"/>
     </row>
-    <row r="16" spans="2:19" ht="17.399999999999999">
+    <row r="16" spans="2:19" ht="17.25">
       <c r="B16" s="31" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" ht="13.15">
       <c r="D18" s="25" t="s">
         <v>0</v>
       </c>
@@ -6383,7 +6393,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" ht="13.15">
       <c r="B19" s="27" t="s">
         <v>1</v>
       </c>
@@ -6403,7 +6413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="40.200000000000003" thickBot="1">
+    <row r="20" spans="2:9" ht="25.9" thickBot="1">
       <c r="B20" s="24" t="s">
         <v>45</v>
       </c>
@@ -6461,14 +6471,14 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="25" spans="2:9" ht="17.399999999999999">
+    <row r="25" spans="2:9" ht="17.25">
       <c r="B25" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" ht="13.15">
       <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
@@ -6506,7 +6516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="40.200000000000003" thickBot="1">
+    <row r="29" spans="2:9" ht="38.65" thickBot="1">
       <c r="B29" s="24" t="s">
         <v>65</v>
       </c>
@@ -6594,7 +6604,7 @@
     </row>
     <row r="33" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="B33" s="17" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>115</v>
@@ -6617,28 +6627,22 @@
       </c>
     </row>
     <row r="34" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="71" t="s">
+      <c r="D34" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="76" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="71"/>
-      <c r="G34" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="B35" s="71" t="s">
@@ -6654,25 +6658,19 @@
         <v>25</v>
       </c>
       <c r="F35" s="71"/>
-      <c r="G35" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="37" spans="2:9" ht="17.399999999999999">
+    <row r="37" spans="2:9" ht="17.25">
       <c r="B37" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" ht="13.15">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
@@ -6970,14 +6968,14 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
-    <row r="56" spans="2:9" ht="17.399999999999999">
+    <row r="56" spans="2:9" ht="17.25">
       <c r="B56" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" ht="13.15">
       <c r="B58" s="57"/>
       <c r="C58" s="58" t="s">
         <v>109</v>
@@ -7016,7 +7014,7 @@
         <v>55.82</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="13.8" thickBot="1">
+    <row r="62" spans="2:9" ht="13.15" thickBot="1">
       <c r="B62" s="66" t="str">
         <f>C47</f>
         <v>PP_NEW_OCGT</v>
@@ -7041,6 +7039,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="304d45e6d5149914c9d9c7e63f737d0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab2ce33a85fc3634f0c8a3fa79a735e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
@@ -7217,22 +7230,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE9CCC9-55FB-4EBC-A563-DAF753F1E6D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7249,23 +7266,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>